--- a/HMIS-C4-Translation-Assistance-Needed-Supplement-2024.xlsx
+++ b/HMIS-C4-Translation-Assistance-Needed-Supplement-2024.xlsx
@@ -9378,13 +9378,16 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
     <TaxCatchAll xmlns="b5134ab8-3d65-4fc5-b690-e8cc6b15e593" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D74FF526F6E9D64093B84A5D6336AF1C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="086500e5c119dafe98ddbbc0abb423bb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72ccbf35-dcc7-4590-9537-6d71d0e4df17" xmlns:ns3="b5134ab8-3d65-4fc5-b690-e8cc6b15e593" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e241935b38974d1152bf159a2513140" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D74FF526F6E9D64093B84A5D6336AF1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a6440a9bfad37630a9de3c12239ce70">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="72ccbf35-dcc7-4590-9537-6d71d0e4df17" xmlns:ns3="b5134ab8-3d65-4fc5-b690-e8cc6b15e593" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12778466fb680371bd3557b774cc2310" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="72ccbf35-dcc7-4590-9537-6d71d0e4df17"/>
     <xsd:import namespace="b5134ab8-3d65-4fc5-b690-e8cc6b15e593"/>
     <xsd:element name="properties">
@@ -9404,11 +9407,28 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72ccbf35-dcc7-4590-9537-6d71d0e4df17" elementFormDefault="qualified">
@@ -9454,6 +9474,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -9626,22 +9651,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD1D31E-DF55-44F7-AB9F-D17E7BEF2C9E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72ccbf35-dcc7-4590-9537-6d71d0e4df17"/>
-    <ds:schemaRef ds:uri="b5134ab8-3d65-4fc5-b690-e8cc6b15e593"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73D92BCB-03AD-4731-8160-63E0B1C34B6B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
